--- a/stones_prices.xlsx
+++ b/stones_prices.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desig\YandexDisk\Js\Programming training project\windowSill №2\Additional material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desig\YandexDisk\Js\Programming training project\windowSill №2\windowsill-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18585" windowHeight="10455"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18585" windowHeight="10455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Grandex Whale White P-119</t>
   </si>
@@ -90,16 +91,31 @@
   </si>
   <si>
     <t>Grandex Sanded Alps S-215</t>
+  </si>
+  <si>
+    <t>Ссылка на сайт с картинами камня</t>
+  </si>
+  <si>
+    <t>https://imperior-stone.ru/catalog-of-stone/akrilovyj-kamen/grandex/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -123,13 +139,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -598,4 +617,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>